--- a/data/obs4.xlsx
+++ b/data/obs4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="19680" windowHeight="18700" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="14220" windowHeight="18740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="titles" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
   <si>
     <t>episode</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>tottime</t>
-  </si>
-  <si>
-    <t>startsec</t>
-  </si>
-  <si>
-    <t>stopsec</t>
-  </si>
-  <si>
-    <t>startmin</t>
-  </si>
-  <si>
-    <t>stopmin</t>
   </si>
   <si>
     <t>character</t>
@@ -103,12 +91,15 @@
   <si>
     <t>Beth</t>
   </si>
+  <si>
+    <t>MK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +111,21 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,7 +148,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -187,11 +193,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="80">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -235,6 +278,42 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -585,7 +664,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -593,7 +672,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -601,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -609,7 +688,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -624,73 +703,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>52</v>
+      <c r="E2" s="1">
+        <v>43</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" si="0">(60*B2)+C2</f>
@@ -698,30 +765,502 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2" si="1">(60*D2)+E2</f>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2" si="2">J2-I2</f>
-        <v>52</v>
-      </c>
-      <c r="I2">
-        <f>F2</f>
+        <f>G2-F2</f>
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>G2</f>
-        <v>52</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:L2" si="3">I2/60</f>
+      <c r="C3" s="1">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="2">(60*B3)+C3</f>
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G16" si="3">(60*D3)+E3</f>
+        <v>160</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H16" si="4">G3-F3</f>
+        <v>117</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>903</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>615</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>433</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>483</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>707</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>838</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1057</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1159</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1206</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+        <v>1320</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1337</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>2495</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>1158</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2360</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>2495</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2495</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>2557</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2531</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>2557</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +1279,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -771,10 +1310,10 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -806,7 +1345,7 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -838,10 +1377,10 @@
         <v>138</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -873,7 +1412,7 @@
         <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -905,10 +1444,10 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -940,10 +1479,10 @@
         <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -975,10 +1514,10 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1010,10 +1549,10 @@
         <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1045,10 +1584,10 @@
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1080,10 +1619,10 @@
         <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1115,10 +1654,10 @@
         <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1150,10 +1689,10 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1185,10 +1724,10 @@
         <v>187</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1220,10 +1759,10 @@
         <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1255,10 +1794,10 @@
         <v>176</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1290,10 +1829,10 @@
         <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1325,10 +1864,10 @@
         <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1360,10 +1899,10 @@
         <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1395,10 +1934,10 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1430,10 +1969,10 @@
         <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1465,10 +2004,10 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1500,10 +2039,10 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1535,10 +2074,10 @@
         <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1570,10 +2109,10 @@
         <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1605,10 +2144,10 @@
         <v>116</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1640,10 +2179,10 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1675,10 +2214,10 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1710,10 +2249,10 @@
         <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1745,10 +2284,10 @@
         <v>81</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1780,10 +2319,10 @@
         <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1815,10 +2354,10 @@
         <v>90</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1850,10 +2389,10 @@
         <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1885,10 +2424,10 @@
         <v>73</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1920,10 +2459,10 @@
         <v>74</v>
       </c>
       <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
         <v>22</v>
-      </c>
-      <c r="J34" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1955,10 +2494,10 @@
         <v>143</v>
       </c>
       <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
         <v>22</v>
-      </c>
-      <c r="J35" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1990,10 +2529,10 @@
         <v>36</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2025,10 +2564,10 @@
         <v>131</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
